--- a/lens data/PAOS_TEL_COM_CH0_v03.xlsx
+++ b/lens data/PAOS_TEL_COM_CH0_v03.xlsx
@@ -1557,10 +1557,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D9" activeCellId="1" sqref="J2 D9"/>
+      <selection pane="bottomLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="2" style="0" width="12.22"/>
@@ -1629,10 +1629,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B29" activeCellId="1" sqref="J2 B29"/>
+      <selection pane="bottomLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.89"/>
   </cols>
@@ -1677,13 +1677,13 @@
   </sheetPr>
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.22"/>
@@ -2211,7 +2211,9 @@
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="4" t="n">
         <v>1</v>
@@ -2939,10 +2941,10 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="1" sqref="J2 G9"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.77"/>
   </cols>

--- a/lens data/PAOS_TEL_COM_CH0_v03.xlsx
+++ b/lens data/PAOS_TEL_COM_CH0_v03.xlsx
@@ -1560,7 +1560,7 @@
       <selection pane="bottomLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="2" style="0" width="12.22"/>
@@ -1632,7 +1632,7 @@
       <selection pane="bottomLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.89"/>
   </cols>
@@ -1677,13 +1677,13 @@
   </sheetPr>
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.22"/>
@@ -2944,7 +2944,7 @@
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.77"/>
   </cols>

--- a/lens data/PAOS_TEL_COM_CH0_v03.xlsx
+++ b/lens data/PAOS_TEL_COM_CH0_v03.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
@@ -1557,10 +1557,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D9" activeCellId="1" sqref="B8:B40 D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="2" style="0" width="12.22"/>
@@ -1629,10 +1629,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="B29" activeCellId="0" sqref="B8:B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.89"/>
   </cols>
@@ -1677,13 +1677,13 @@
   </sheetPr>
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="J21" activeCellId="1" sqref="B8:B40 J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.22"/>
@@ -2940,11 +2940,11 @@
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8:B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.77"/>
   </cols>
